--- a/biology/Neurosciences/Institut_et_hôpital_neurologiques_de_Montréal/Institut_et_hôpital_neurologiques_de_Montréal.xlsx
+++ b/biology/Neurosciences/Institut_et_hôpital_neurologiques_de_Montréal/Institut_et_hôpital_neurologiques_de_Montréal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Institut_et_h%C3%B4pital_neurologiques_de_Montr%C3%A9al</t>
+          <t>Institut_et_hôpital_neurologiques_de_Montréal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Institut-hôpital neurologique de Montréal (Le Neuro) est un centre hospitalier académique spécialisé dans les neurosciences et situé au centre-ville de Montréal. L'institut est relié à l'Université McGill dont il constitue un centre de recherche et d'enseignement. Son pendant clinique, l'Hôpital neurologique de Montréal est l'un des cinq hôpitaux d'enseignement du Centre de santé McGill.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Institut_et_h%C3%B4pital_neurologiques_de_Montr%C3%A9al</t>
+          <t>Institut_et_hôpital_neurologiques_de_Montréal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Recherche et formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Des équipes multidisciplinaires de recherche de base et clinique produisent des avancées fondamentales sur le système nerveux et appliquent ces connaissances au traitement des maladies neurologiques. La recherche à Le Neuro couvre tout le spectre des neurosciences et des soins aux patients. Plusieurs de recherche sont intégrées de près aux activités cliniques:  
 Tumeurs cérébrales
@@ -539,7 +553,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Institut_et_h%C3%B4pital_neurologiques_de_Montr%C3%A9al</t>
+          <t>Institut_et_hôpital_neurologiques_de_Montréal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -557,9 +571,11 @@
           <t>Stratégie open data et open science</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2016, suivant l'exemple du projet du génome humain (essentiellement financé par le gouvernement) et pour accélérer l'efficacité et la diffusion de la recherche en neurosciences, Le Neuro est le premier Institut scientifique privé à annoncer une stratégie de publication s'inscrivant dans le mouvement open science[1]. Selon l'annonce, tous les résultats, logiciels, algorithmes et données issues de la recherche pouvant l'être[2] seront gratuitement mis à disposition, dès leur publication, et l'institut ne déposera pas de brevets sur ses découvertes[1]. En outre les collaborateurs institutions partenaires sont invités à suivre également ces principes d'open data. Cette décision fait suite à un an de consultations du personnel de l'institut, où presque tous (environ 70 chercheurs principaux et 600 autres professeurs et scientifique) ont accepté de participer à cette large ouverture ;
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2016, suivant l'exemple du projet du génome humain (essentiellement financé par le gouvernement) et pour accélérer l'efficacité et la diffusion de la recherche en neurosciences, Le Neuro est le premier Institut scientifique privé à annoncer une stratégie de publication s'inscrivant dans le mouvement open science. Selon l'annonce, tous les résultats, logiciels, algorithmes et données issues de la recherche pouvant l'être seront gratuitement mis à disposition, dès leur publication, et l'institut ne déposera pas de brevets sur ses découvertes. En outre les collaborateurs institutions partenaires sont invités à suivre également ces principes d'open data. Cette décision fait suite à un an de consultations du personnel de l'institut, où presque tous (environ 70 chercheurs principaux et 600 autres professeurs et scientifique) ont accepté de participer à cette large ouverture ;
 </t>
         </is>
       </c>
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Institut_et_h%C3%B4pital_neurologiques_de_Montr%C3%A9al</t>
+          <t>Institut_et_hôpital_neurologiques_de_Montréal</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,7 +604,9 @@
           <t>Grandes réussites</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Seul institut et hôpital neurologique au Canada
 Premier Scanneur CT, système PET et MRI au Canada
@@ -606,7 +624,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Institut_et_h%C3%B4pital_neurologiques_de_Montr%C3%A9al</t>
+          <t>Institut_et_hôpital_neurologiques_de_Montréal</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -624,7 +642,9 @@
           <t>Directeurs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1934-1960 : Wilder Penfield (1891-1976), MD
 1960-1972 : Theodore Rasmussen (1910-2002), MD
@@ -643,7 +663,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Institut_et_h%C3%B4pital_neurologiques_de_Montr%C3%A9al</t>
+          <t>Institut_et_hôpital_neurologiques_de_Montréal</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -661,7 +681,9 @@
           <t>Chercheurs de renom</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Wilder Penfield
 David Hubel, Prix Nobel
@@ -679,7 +701,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Institut_et_h%C3%B4pital_neurologiques_de_Montr%C3%A9al</t>
+          <t>Institut_et_hôpital_neurologiques_de_Montréal</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -697,7 +719,9 @@
           <t>Locaux et services</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Au pavillon Rockefeller (1934) se sont ajoutés sept immeubles :
 l'aile John Wilson McConnell (1952)
